--- a/biology/Zoologie/Chlosyne_hoffmanni/Chlosyne_hoffmanni.xlsx
+++ b/biology/Zoologie/Chlosyne_hoffmanni/Chlosyne_hoffmanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne hoffmanni est un  insecte lépidoptère de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne hoffmanni a été nommée par Hans Hermann Behr en 1863.
-Synonymes : Melitaea acastus Edwards, 1874; Lemonias acastus ; Dyar, 1903[1].
-Sous-espèces
-Chlosyne hoffmanni segregata Barnes et McDunnough, 1918
-Chlosyne hoffmanni manchada Bauer, [1960]; présente au Canada[1].
-Noms vernaculaires
-Chlosyne hoffmanni se nomme en anglais Aster Checkerspot[1].
+Synonymes : Melitaea acastus Edwards, 1874; Lemonias acastus ; Dyar, 1903.
 </t>
         </is>
       </c>
@@ -545,16 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlosyne ascatus est un papillon dont le dessus présente une ligne marginale entrecoupée orange, une ligne de damiers orange puis une ligne de damiers jaune, la partie basale étant marron sans ornementation.
-Le revers est bordé d'orange et constitué de bandes de damiers successivement orange et jaune pâle. Il est de taille moyenne, son envergure varie entre 35 et 45 mm[2].
-Chenille
-La chenille est noire, ornée de points et de lignes blanc crème[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne hoffmanni segregata Barnes et McDunnough, 1918
+Chlosyne hoffmanni manchada Bauer, ; présente au Canada.</t>
         </is>
       </c>
     </row>
@@ -579,16 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en une génération juin juillet[4].
-Chlosyne hoffmanni hiberne au stade de chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont Aster conspicuus et Chrysothamnus breweri[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne hoffmanni se nomme en anglais Aster Checkerspot.
 </t>
         </is>
       </c>
@@ -614,16 +628,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne ascatus est un papillon dont le dessus présente une ligne marginale entrecoupée orange, une ligne de damiers orange puis une ligne de damiers jaune, la partie basale étant marron sans ornementation.
+Le revers est bordé d'orange et constitué de bandes de damiers successivement orange et jaune pâle. Il est de taille moyenne, son envergure varie entre 35 et 45 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire, ornée de points et de lignes blanc crème.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une génération juin juillet.
+Chlosyne hoffmanni hiberne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont Aster conspicuus et Chrysothamnus breweri.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord[1]. Son aire est restreinte à la Sierra Nevada, dans le sud de la Colombie-Britannique au Canada et dans l’État de Washington, l'Oregon, l'est du Nevada et la Californie[3],[2].
-Biotope
-Il réside à moyenne altitude en zone humide[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans l'ouest de l'Amérique du Nord. Son aire est restreinte à la Sierra Nevada, dans le sud de la Colombie-Britannique au Canada et dans l’État de Washington, l'Oregon, l'est du Nevada et la Californie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside à moyenne altitude en zone humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_hoffmanni</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
